--- a/data/preprocessed/removed_data.xlsx
+++ b/data/preprocessed/removed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>AGE</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>BMI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>density</t>
         </is>
@@ -452,596 +457,756 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24.6</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>41.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.7</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>19.4</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>35.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>42.1</v>
+        <v>61</v>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>21.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>43.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>42.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>17.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>40.6</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>50.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>42.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>33.9</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>25.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>42.2</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>21.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>44.4</v>
+        <v>57</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>29.7</v>
+        <v>62</v>
       </c>
       <c r="C15" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>28.7</v>
+        <v>65</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>20.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>20.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>20.1</v>
+        <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>28.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>37.9</v>
+        <v>61</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>31.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
         <v>50</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>41.8</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>42.6</v>
+        <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>20.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>31.6</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>38.5</v>
+        <v>65</v>
       </c>
       <c r="C23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D23" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>41.8</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>38.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>20.7</v>
+        <v>56</v>
       </c>
       <c r="C25" t="n">
-        <v>90</v>
+        <v>42.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>21.5</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>37.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>35.7</v>
+        <v>35</v>
       </c>
       <c r="C27" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D27" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>19.5</v>
+        <v>39</v>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
+        <v>34.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>38.4</v>
+        <v>58</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>19.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>42.3</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>22.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>38</v>
+      </c>
+      <c r="C32" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D32" t="n">
         <v>40</v>
-      </c>
-      <c r="B32" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>41.3</v>
+        <v>62</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>21.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>44.3</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
-        <v>80</v>
+        <v>19.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>39.7</v>
+        <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>19.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>46.4</v>
+        <v>66</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>32.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>70</v>
+        <v>42.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>21.6</v>
+        <v>67</v>
       </c>
       <c r="C38" t="n">
-        <v>80</v>
+        <v>37.7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>28.4</v>
+        <v>35</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>21.2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>24.5</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>27.9</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>45.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>36.1</v>
+        <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>21.6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
         <v>35</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>22</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>40.2</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>46.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
-        <v>17.6</v>
-      </c>
       <c r="C45" t="n">
-        <v>40</v>
+        <v>20.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>44.3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>22.8</v>
+        <v>66</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>33.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>25.8</v>
+        <v>38</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>19.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>39.5</v>
+        <v>46</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>41.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>20.7</v>
+        <v>65</v>
       </c>
       <c r="C50" t="n">
-        <v>95</v>
+        <v>38.4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>50.4</v>
+        <v>54</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>39.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>20.8</v>
+        <v>39</v>
       </c>
       <c r="C52" t="n">
-        <v>70</v>
+        <v>20.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>21.2</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
-        <v>90</v>
+        <v>37.9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>19.2</v>
+        <v>68</v>
       </c>
       <c r="C54" t="n">
-        <v>95</v>
+        <v>26.7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>45.5</v>
+        <v>68</v>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>29.7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
